--- a/reports/results/kaylie_results.xlsx
+++ b/reports/results/kaylie_results.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\solar-flare-project\reports\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A633E-6A43-47D3-B925-9D3B94C3A77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB649B-FA11-4C06-95F3-AAF5555122BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -456,7 +467,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,6 +717,10 @@
       <c r="Z3">
         <v>0.79859999999999998</v>
       </c>
+      <c r="AA3">
+        <f>AVERAGE(B3:Z3)</f>
+        <v>0.6574080000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -786,6 +801,10 @@
       <c r="Z4">
         <v>0.85460000000000003</v>
       </c>
+      <c r="AA4">
+        <f>AVERAGE(B4:Z4)</f>
+        <v>0.72695600000000027</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -866,6 +885,10 @@
       <c r="Z5">
         <v>0.79859999999999998</v>
       </c>
+      <c r="AA5">
+        <f>AVERAGE(B5:Z5)</f>
+        <v>0.6574080000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -946,6 +969,10 @@
       <c r="Z6">
         <v>0.7903</v>
       </c>
+      <c r="AA6">
+        <f>AVERAGE(B6:Z6)</f>
+        <v>0.57584800000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1025,6 +1052,10 @@
       </c>
       <c r="Z7">
         <v>0.59699999999999998</v>
+      </c>
+      <c r="AA7">
+        <f>AVERAGE(B7:Z7)</f>
+        <v>0.30532399999999993</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">

--- a/reports/results/kaylie_results.xlsx
+++ b/reports/results/kaylie_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\solar-flare-project\reports\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB649B-FA11-4C06-95F3-AAF5555122BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAADE225-8DA1-445F-A883-332E761CC28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Loss</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Run 3:</t>
+  </si>
+  <si>
+    <t>3-layer encoder with pre-processing</t>
+  </si>
+  <si>
+    <t>1-layer encoder with pre-processing</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,33 +1551,131 @@
       <c r="A16" t="s">
         <v>0</v>
       </c>
+      <c r="B16">
+        <v>2.2572999999999999</v>
+      </c>
+      <c r="C16">
+        <v>3.5057</v>
+      </c>
+      <c r="D16">
+        <v>2.0392999999999999</v>
+      </c>
+      <c r="E16">
+        <v>3.4131999999999998</v>
+      </c>
+      <c r="F16">
+        <v>1.5556000000000001</v>
+      </c>
       <c r="AB16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0.59519999999999995</v>
+      </c>
+      <c r="C17">
+        <v>0.50480000000000003</v>
+      </c>
+      <c r="D17">
+        <v>0.51219999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.51759999999999995</v>
+      </c>
+      <c r="F17">
+        <v>0.59419999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="C18">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.6905</v>
+      </c>
+      <c r="E18">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="F18">
+        <v>0.77329999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0.59519999999999995</v>
+      </c>
+      <c r="C19">
+        <v>0.50480000000000003</v>
+      </c>
+      <c r="D19">
+        <v>0.51219999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.51759999999999995</v>
+      </c>
+      <c r="F19">
+        <v>0.59419999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0.4985</v>
+      </c>
+      <c r="C20">
+        <v>0.3387</v>
+      </c>
+      <c r="D20">
+        <v>0.36220000000000002</v>
+      </c>
+      <c r="E20">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="F20">
+        <v>0.5131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2.29E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.18429999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
